--- a/EffortEstimation/PMSheets/PM04_5_19.xlsx
+++ b/EffortEstimation/PMSheets/PM04_5_19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAECEBD-853E-4EE0-AF07-6B9A4ACB8E99}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDAA40-EE2F-4BB6-B277-01BE45B3E7EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>30min</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
+  <si>
+    <t>10h</t>
   </si>
 </sst>
 </file>
@@ -454,7 +469,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +533,12 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -529,6 +550,12 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -540,6 +567,12 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -551,6 +584,12 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -562,6 +601,12 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
@@ -573,6 +618,12 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
@@ -582,6 +633,12 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">

--- a/EffortEstimation/PMSheets/PM04_5_19.xlsx
+++ b/EffortEstimation/PMSheets/PM04_5_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDAA40-EE2F-4BB6-B277-01BE45B3E7EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B320629-4BC5-474A-A4F1-C1238EAE6A06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Design Login-Page</t>
-  </si>
-  <si>
-    <t>30min</t>
   </si>
   <si>
     <t>1.5h</t>
@@ -469,7 +466,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +517,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -534,10 +534,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -551,10 +551,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -585,10 +585,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
